--- a/Prepared_dataset.xlsx
+++ b/Prepared_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>message type</t>
+          <t>message_type</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -466,15 +466,10 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Use of Hashtags</t>
+          <t>Directed at who or what</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Directed at who or what</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Use_of_Hashtag</t>
         </is>
@@ -507,15 +502,10 @@
       <c r="F2" t="n">
         <v>2</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -551,15 +541,10 @@
       <c r="F3" t="n">
         <v>6</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="G3" t="n">
         <v>3</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -593,15 +578,10 @@
       <c r="F4" t="n">
         <v>8</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="G4" t="n">
         <v>6</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -636,15 +616,10 @@
       <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+      <c r="G5" t="n">
         <v>5</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -677,15 +652,10 @@
       <c r="F6" t="n">
         <v>2</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-      <c r="I6" t="inlineStr">
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -718,15 +688,10 @@
       <c r="F7" t="n">
         <v>2</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -759,15 +724,10 @@
       <c r="F8" t="n">
         <v>2</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -800,15 +760,10 @@
       <c r="F9" t="n">
         <v>2</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-      <c r="I9" t="inlineStr">
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -841,15 +796,10 @@
       <c r="F10" t="n">
         <v>2</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-      <c r="I10" t="inlineStr">
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -882,15 +832,10 @@
       <c r="F11" t="n">
         <v>2</v>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I11" t="inlineStr">
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -923,15 +868,10 @@
       <c r="F12" t="n">
         <v>2</v>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-      <c r="I12" t="inlineStr">
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -964,15 +904,10 @@
       <c r="F13" t="n">
         <v>2</v>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I13" t="inlineStr">
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1005,15 +940,10 @@
       <c r="F14" t="n">
         <v>4</v>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-      <c r="I14" t="inlineStr">
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1046,15 +976,10 @@
       <c r="F15" t="n">
         <v>2</v>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-      <c r="I15" t="inlineStr">
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1087,15 +1012,10 @@
       <c r="F16" t="n">
         <v>2</v>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-      <c r="I16" t="inlineStr">
+      <c r="G16" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1128,15 +1048,10 @@
       <c r="F17" t="n">
         <v>2</v>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-      <c r="I17" t="inlineStr">
+      <c r="G17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1169,15 +1084,10 @@
       <c r="F18" t="n">
         <v>2</v>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-      <c r="I18" t="inlineStr">
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1210,15 +1120,10 @@
       <c r="F19" t="n">
         <v>2</v>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-      <c r="I19" t="inlineStr">
+      <c r="G19" t="n">
+        <v>4</v>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1251,15 +1156,10 @@
       <c r="F20" t="n">
         <v>2</v>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-      <c r="I20" t="inlineStr">
+      <c r="G20" t="n">
+        <v>4</v>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1292,15 +1192,10 @@
       <c r="F21" t="n">
         <v>2</v>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-      <c r="I21" t="inlineStr">
+      <c r="G21" t="n">
+        <v>4</v>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1333,15 +1228,10 @@
       <c r="F22" t="n">
         <v>2</v>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
-      </c>
-      <c r="I22" t="inlineStr">
+      <c r="G22" t="n">
+        <v>4</v>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1374,15 +1264,10 @@
       <c r="F23" t="n">
         <v>2</v>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
-      <c r="I23" t="inlineStr">
+      <c r="G23" t="n">
+        <v>4</v>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1415,15 +1300,10 @@
       <c r="F24" t="n">
         <v>2</v>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
-      </c>
-      <c r="I24" t="inlineStr">
+      <c r="G24" t="n">
+        <v>4</v>
+      </c>
+      <c r="H24" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1456,15 +1336,10 @@
       <c r="F25" t="n">
         <v>2</v>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
-      <c r="I25" t="inlineStr">
+      <c r="G25" t="n">
+        <v>4</v>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1497,15 +1372,10 @@
       <c r="F26" t="n">
         <v>2</v>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
-      </c>
-      <c r="I26" t="inlineStr">
+      <c r="G26" t="n">
+        <v>4</v>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1538,15 +1408,10 @@
       <c r="F27" t="n">
         <v>2</v>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>4</v>
-      </c>
-      <c r="I27" t="inlineStr">
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
+      <c r="H27" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1579,15 +1444,10 @@
       <c r="F28" t="n">
         <v>2</v>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>4</v>
-      </c>
-      <c r="I28" t="inlineStr">
+      <c r="G28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1620,15 +1480,10 @@
       <c r="F29" t="n">
         <v>4</v>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>4</v>
-      </c>
-      <c r="I29" t="inlineStr">
+      <c r="G29" t="n">
+        <v>4</v>
+      </c>
+      <c r="H29" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1661,15 +1516,10 @@
       <c r="F30" t="n">
         <v>4</v>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>4</v>
-      </c>
-      <c r="I30" t="inlineStr">
+      <c r="G30" t="n">
+        <v>4</v>
+      </c>
+      <c r="H30" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1702,15 +1552,10 @@
       <c r="F31" t="n">
         <v>2</v>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>4</v>
-      </c>
-      <c r="I31" t="inlineStr">
+      <c r="G31" t="n">
+        <v>4</v>
+      </c>
+      <c r="H31" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1743,15 +1588,10 @@
       <c r="F32" t="n">
         <v>2</v>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>4</v>
-      </c>
-      <c r="I32" t="inlineStr">
+      <c r="G32" t="n">
+        <v>4</v>
+      </c>
+      <c r="H32" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1784,15 +1624,10 @@
       <c r="F33" t="n">
         <v>2</v>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
-      </c>
-      <c r="I33" t="inlineStr">
+      <c r="G33" t="n">
+        <v>4</v>
+      </c>
+      <c r="H33" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1825,15 +1660,10 @@
       <c r="F34" t="n">
         <v>2</v>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>4</v>
-      </c>
-      <c r="I34" t="inlineStr">
+      <c r="G34" t="n">
+        <v>4</v>
+      </c>
+      <c r="H34" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1866,15 +1696,10 @@
       <c r="F35" t="n">
         <v>2</v>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>4</v>
-      </c>
-      <c r="I35" t="inlineStr">
+      <c r="G35" t="n">
+        <v>4</v>
+      </c>
+      <c r="H35" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1907,15 +1732,10 @@
       <c r="F36" t="n">
         <v>2</v>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>4</v>
-      </c>
-      <c r="I36" t="inlineStr">
+      <c r="G36" t="n">
+        <v>4</v>
+      </c>
+      <c r="H36" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1948,15 +1768,10 @@
       <c r="F37" t="n">
         <v>2</v>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>4</v>
-      </c>
-      <c r="I37" t="inlineStr">
+      <c r="G37" t="n">
+        <v>4</v>
+      </c>
+      <c r="H37" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1989,15 +1804,10 @@
       <c r="F38" t="n">
         <v>2</v>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>4</v>
-      </c>
-      <c r="I38" t="inlineStr">
+      <c r="G38" t="n">
+        <v>4</v>
+      </c>
+      <c r="H38" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2030,15 +1840,10 @@
       <c r="F39" t="n">
         <v>4</v>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>4</v>
-      </c>
-      <c r="I39" t="inlineStr">
+      <c r="G39" t="n">
+        <v>4</v>
+      </c>
+      <c r="H39" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2071,15 +1876,10 @@
       <c r="F40" t="n">
         <v>2</v>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>4</v>
-      </c>
-      <c r="I40" t="inlineStr">
+      <c r="G40" t="n">
+        <v>4</v>
+      </c>
+      <c r="H40" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2112,15 +1912,10 @@
       <c r="F41" t="n">
         <v>2</v>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>4</v>
-      </c>
-      <c r="I41" t="inlineStr">
+      <c r="G41" t="n">
+        <v>4</v>
+      </c>
+      <c r="H41" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2153,15 +1948,10 @@
       <c r="F42" t="n">
         <v>2</v>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>4</v>
-      </c>
-      <c r="I42" t="inlineStr">
+      <c r="G42" t="n">
+        <v>4</v>
+      </c>
+      <c r="H42" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2194,15 +1984,10 @@
       <c r="F43" t="n">
         <v>2</v>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>4</v>
-      </c>
-      <c r="I43" t="inlineStr">
+      <c r="G43" t="n">
+        <v>4</v>
+      </c>
+      <c r="H43" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2235,15 +2020,10 @@
       <c r="F44" t="n">
         <v>2</v>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>4</v>
-      </c>
-      <c r="I44" t="inlineStr">
+      <c r="G44" t="n">
+        <v>4</v>
+      </c>
+      <c r="H44" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2276,15 +2056,10 @@
       <c r="F45" t="n">
         <v>2</v>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>4</v>
-      </c>
-      <c r="I45" t="inlineStr">
+      <c r="G45" t="n">
+        <v>4</v>
+      </c>
+      <c r="H45" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2317,15 +2092,10 @@
       <c r="F46" t="n">
         <v>2</v>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>4</v>
-      </c>
-      <c r="I46" t="inlineStr">
+      <c r="G46" t="n">
+        <v>4</v>
+      </c>
+      <c r="H46" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2358,15 +2128,10 @@
       <c r="F47" t="n">
         <v>2</v>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>4</v>
-      </c>
-      <c r="I47" t="inlineStr">
+      <c r="G47" t="n">
+        <v>4</v>
+      </c>
+      <c r="H47" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2399,15 +2164,10 @@
       <c r="F48" t="n">
         <v>1</v>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
+      <c r="G48" t="n">
         <v>5</v>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2440,15 +2200,10 @@
       <c r="F49" t="n">
         <v>2</v>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>4</v>
-      </c>
-      <c r="I49" t="inlineStr">
+      <c r="G49" t="n">
+        <v>4</v>
+      </c>
+      <c r="H49" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2481,15 +2236,10 @@
       <c r="F50" t="n">
         <v>2</v>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>4</v>
-      </c>
-      <c r="I50" t="inlineStr">
+      <c r="G50" t="n">
+        <v>4</v>
+      </c>
+      <c r="H50" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2522,15 +2272,10 @@
       <c r="F51" t="n">
         <v>2</v>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>4</v>
-      </c>
-      <c r="I51" t="inlineStr">
+      <c r="G51" t="n">
+        <v>4</v>
+      </c>
+      <c r="H51" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2563,15 +2308,10 @@
       <c r="F52" t="n">
         <v>2</v>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>4</v>
-      </c>
-      <c r="I52" t="inlineStr">
+      <c r="G52" t="n">
+        <v>4</v>
+      </c>
+      <c r="H52" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2604,15 +2344,10 @@
       <c r="F53" t="n">
         <v>2</v>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>4</v>
-      </c>
-      <c r="I53" t="inlineStr">
+      <c r="G53" t="n">
+        <v>4</v>
+      </c>
+      <c r="H53" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2645,15 +2380,10 @@
       <c r="F54" t="n">
         <v>2</v>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>4</v>
-      </c>
-      <c r="I54" t="inlineStr">
+      <c r="G54" t="n">
+        <v>4</v>
+      </c>
+      <c r="H54" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2686,15 +2416,10 @@
       <c r="F55" t="n">
         <v>4</v>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>4</v>
-      </c>
-      <c r="I55" t="inlineStr">
+      <c r="G55" t="n">
+        <v>4</v>
+      </c>
+      <c r="H55" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2727,15 +2452,10 @@
       <c r="F56" t="n">
         <v>4</v>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>4</v>
-      </c>
-      <c r="I56" t="inlineStr">
+      <c r="G56" t="n">
+        <v>4</v>
+      </c>
+      <c r="H56" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2768,15 +2488,10 @@
       <c r="F57" t="n">
         <v>2</v>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>4</v>
-      </c>
-      <c r="I57" t="inlineStr">
+      <c r="G57" t="n">
+        <v>4</v>
+      </c>
+      <c r="H57" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2809,15 +2524,10 @@
       <c r="F58" t="n">
         <v>2</v>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>4</v>
-      </c>
-      <c r="I58" t="inlineStr">
+      <c r="G58" t="n">
+        <v>4</v>
+      </c>
+      <c r="H58" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2850,15 +2560,10 @@
       <c r="F59" t="n">
         <v>2</v>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>4</v>
-      </c>
-      <c r="I59" t="inlineStr">
+      <c r="G59" t="n">
+        <v>4</v>
+      </c>
+      <c r="H59" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2891,15 +2596,10 @@
       <c r="F60" t="n">
         <v>2</v>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>4</v>
-      </c>
-      <c r="I60" t="inlineStr">
+      <c r="G60" t="n">
+        <v>4</v>
+      </c>
+      <c r="H60" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2933,15 +2633,10 @@
       <c r="F61" t="n">
         <v>7</v>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
+      <c r="G61" t="n">
         <v>3</v>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2976,15 +2671,10 @@
       <c r="F62" t="n">
         <v>7</v>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
+      <c r="G62" t="n">
         <v>3</v>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3017,15 +2707,10 @@
       <c r="F63" t="n">
         <v>2</v>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>4</v>
-      </c>
-      <c r="I63" t="inlineStr">
+      <c r="G63" t="n">
+        <v>4</v>
+      </c>
+      <c r="H63" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3058,15 +2743,10 @@
       <c r="F64" t="n">
         <v>2</v>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>4</v>
-      </c>
-      <c r="I64" t="inlineStr">
+      <c r="G64" t="n">
+        <v>4</v>
+      </c>
+      <c r="H64" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3099,15 +2779,10 @@
       <c r="F65" t="n">
         <v>2</v>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>4</v>
-      </c>
-      <c r="I65" t="inlineStr">
+      <c r="G65" t="n">
+        <v>4</v>
+      </c>
+      <c r="H65" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3140,15 +2815,10 @@
       <c r="F66" t="n">
         <v>4</v>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>4</v>
-      </c>
-      <c r="I66" t="inlineStr">
+      <c r="G66" t="n">
+        <v>4</v>
+      </c>
+      <c r="H66" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3181,15 +2851,10 @@
       <c r="F67" t="n">
         <v>2</v>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>4</v>
-      </c>
-      <c r="I67" t="inlineStr">
+      <c r="G67" t="n">
+        <v>4</v>
+      </c>
+      <c r="H67" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3222,15 +2887,10 @@
       <c r="F68" t="n">
         <v>2</v>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>4</v>
-      </c>
-      <c r="I68" t="inlineStr">
+      <c r="G68" t="n">
+        <v>4</v>
+      </c>
+      <c r="H68" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3263,15 +2923,10 @@
       <c r="F69" t="n">
         <v>2</v>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>4</v>
-      </c>
-      <c r="I69" t="inlineStr">
+      <c r="G69" t="n">
+        <v>4</v>
+      </c>
+      <c r="H69" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3304,15 +2959,10 @@
       <c r="F70" t="n">
         <v>2</v>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>4</v>
-      </c>
-      <c r="I70" t="inlineStr">
+      <c r="G70" t="n">
+        <v>4</v>
+      </c>
+      <c r="H70" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3345,15 +2995,10 @@
       <c r="F71" t="n">
         <v>2</v>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>4</v>
-      </c>
-      <c r="I71" t="inlineStr">
+      <c r="G71" t="n">
+        <v>4</v>
+      </c>
+      <c r="H71" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3386,15 +3031,10 @@
       <c r="F72" t="n">
         <v>2</v>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>4</v>
-      </c>
-      <c r="I72" t="inlineStr">
+      <c r="G72" t="n">
+        <v>4</v>
+      </c>
+      <c r="H72" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3427,15 +3067,10 @@
       <c r="F73" t="n">
         <v>2</v>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>4</v>
-      </c>
-      <c r="I73" t="inlineStr">
+      <c r="G73" t="n">
+        <v>4</v>
+      </c>
+      <c r="H73" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3476,15 +3111,10 @@
       <c r="F74" t="n">
         <v>2</v>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>4</v>
-      </c>
-      <c r="I74" t="inlineStr">
+      <c r="G74" t="n">
+        <v>4</v>
+      </c>
+      <c r="H74" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3519,15 +3149,10 @@
       <c r="F75" t="n">
         <v>5</v>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
+      <c r="G75" t="n">
         <v>3</v>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3561,15 +3186,10 @@
       <c r="F76" t="n">
         <v>1</v>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
+      <c r="G76" t="n">
         <v>5</v>
       </c>
-      <c r="I76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3602,15 +3222,10 @@
       <c r="F77" t="n">
         <v>7</v>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
+      <c r="G77" t="n">
         <v>1</v>
       </c>
-      <c r="I77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3645,15 +3260,10 @@
       <c r="F78" t="n">
         <v>5</v>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
+      <c r="G78" t="n">
         <v>3</v>
       </c>
-      <c r="I78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3686,15 +3296,10 @@
       <c r="F79" t="n">
         <v>5</v>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
+      <c r="G79" t="n">
         <v>3</v>
       </c>
-      <c r="I79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3729,15 +3334,10 @@
       <c r="F80" t="n">
         <v>3</v>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="inlineStr">
+      <c r="G80" t="n">
+        <v>2</v>
+      </c>
+      <c r="H80" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3772,15 +3372,10 @@
       <c r="F81" t="n">
         <v>5</v>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
+      <c r="G81" t="n">
         <v>3</v>
       </c>
-      <c r="I81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3813,15 +3408,10 @@
       <c r="F82" t="n">
         <v>7</v>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H82" t="n">
+      <c r="G82" t="n">
         <v>3</v>
       </c>
-      <c r="I82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3854,15 +3444,10 @@
       <c r="F83" t="n">
         <v>4</v>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H83" t="n">
-        <v>4</v>
-      </c>
-      <c r="I83" t="inlineStr">
+      <c r="G83" t="n">
+        <v>4</v>
+      </c>
+      <c r="H83" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3895,15 +3480,10 @@
       <c r="F84" t="n">
         <v>4</v>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H84" t="n">
-        <v>4</v>
-      </c>
-      <c r="I84" t="inlineStr">
+      <c r="G84" t="n">
+        <v>4</v>
+      </c>
+      <c r="H84" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3936,15 +3516,10 @@
       <c r="F85" t="n">
         <v>4</v>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H85" t="n">
-        <v>4</v>
-      </c>
-      <c r="I85" t="inlineStr">
+      <c r="G85" t="n">
+        <v>4</v>
+      </c>
+      <c r="H85" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3977,15 +3552,10 @@
       <c r="F86" t="n">
         <v>4</v>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H86" t="n">
-        <v>4</v>
-      </c>
-      <c r="I86" t="inlineStr">
+      <c r="G86" t="n">
+        <v>4</v>
+      </c>
+      <c r="H86" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -4018,15 +3588,10 @@
       <c r="F87" t="n">
         <v>2</v>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H87" t="n">
-        <v>4</v>
-      </c>
-      <c r="I87" t="inlineStr">
+      <c r="G87" t="n">
+        <v>4</v>
+      </c>
+      <c r="H87" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -4059,15 +3624,10 @@
       <c r="F88" t="n">
         <v>2</v>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H88" t="n">
-        <v>4</v>
-      </c>
-      <c r="I88" t="inlineStr">
+      <c r="G88" t="n">
+        <v>4</v>
+      </c>
+      <c r="H88" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -4100,15 +3660,10 @@
       <c r="F89" t="n">
         <v>2</v>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H89" t="n">
-        <v>4</v>
-      </c>
-      <c r="I89" t="inlineStr">
+      <c r="G89" t="n">
+        <v>4</v>
+      </c>
+      <c r="H89" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -4143,15 +3698,10 @@
       <c r="F90" t="n">
         <v>6</v>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H90" t="n">
+      <c r="G90" t="n">
         <v>3</v>
       </c>
-      <c r="I90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -4191,15 +3741,10 @@
       <c r="F91" t="n">
         <v>2</v>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H91" t="n">
-        <v>4</v>
-      </c>
-      <c r="I91" t="inlineStr">
+      <c r="G91" t="n">
+        <v>4</v>
+      </c>
+      <c r="H91" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -4232,15 +3777,10 @@
       <c r="F92" t="n">
         <v>4</v>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H92" t="n">
+      <c r="G92" t="n">
         <v>3</v>
       </c>
-      <c r="I92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -4273,15 +3813,10 @@
       <c r="F93" t="n">
         <v>2</v>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H93" t="n">
-        <v>4</v>
-      </c>
-      <c r="I93" t="inlineStr">
+      <c r="G93" t="n">
+        <v>4</v>
+      </c>
+      <c r="H93" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -4314,15 +3849,10 @@
       <c r="F94" t="n">
         <v>2</v>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H94" t="n">
-        <v>4</v>
-      </c>
-      <c r="I94" t="inlineStr">
+      <c r="G94" t="n">
+        <v>4</v>
+      </c>
+      <c r="H94" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -4356,15 +3886,10 @@
       <c r="F95" t="n">
         <v>3</v>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H95" t="n">
+      <c r="G95" t="n">
         <v>3</v>
       </c>
-      <c r="I95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -4397,15 +3922,10 @@
       <c r="F96" t="n">
         <v>3</v>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H96" t="n">
+      <c r="G96" t="n">
         <v>3</v>
       </c>
-      <c r="I96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -4438,15 +3958,10 @@
       <c r="F97" t="n">
         <v>3</v>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H97" t="n">
+      <c r="G97" t="n">
         <v>3</v>
       </c>
-      <c r="I97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -4480,15 +3995,10 @@
       <c r="F98" t="n">
         <v>3</v>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H98" t="n">
+      <c r="G98" t="n">
         <v>3</v>
       </c>
-      <c r="I98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -4523,15 +4033,10 @@
       <c r="F99" t="n">
         <v>3</v>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H99" t="n">
+      <c r="G99" t="n">
         <v>1</v>
       </c>
-      <c r="I99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -4564,15 +4069,10 @@
       <c r="F100" t="n">
         <v>6</v>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H100" t="n">
+      <c r="G100" t="n">
         <v>3</v>
       </c>
-      <c r="I100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -4606,15 +4106,10 @@
       <c r="F101" t="n">
         <v>6</v>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H101" t="n">
+      <c r="G101" t="n">
         <v>3</v>
       </c>
-      <c r="I101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>No</t>
         </is>
